--- a/data/pca/factorExposure/factorExposure_2014-10-10.xlsx
+++ b/data/pca/factorExposure/factorExposure_2014-10-10.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="113">
   <si>
     <t>factor1</t>
   </si>
@@ -32,6 +32,18 @@
   </si>
   <si>
     <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
+  </si>
+  <si>
+    <t>factor9</t>
+  </si>
+  <si>
+    <t>factor10</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -698,13 +710,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G104"/>
+  <dimension ref="A1:K104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -723,33 +735,57 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B2">
-        <v>0.006137353872707873</v>
+        <v>0.01673775383350159</v>
       </c>
       <c r="C2">
-        <v>0.1042785525184723</v>
+        <v>-0.0711781386887447</v>
       </c>
       <c r="D2">
-        <v>-0.008757686346720056</v>
+        <v>-0.02864812537274426</v>
       </c>
       <c r="E2">
-        <v>0.2197399547684327</v>
+        <v>-0.06843958559737016</v>
       </c>
       <c r="F2">
-        <v>-0.1116240328746516</v>
+        <v>-0.149910306762767</v>
       </c>
       <c r="G2">
-        <v>0.06055689209260499</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>0.003641621407069619</v>
+      </c>
+      <c r="H2">
+        <v>-0.0524164629576583</v>
+      </c>
+      <c r="I2">
+        <v>-0.0002220550619044962</v>
+      </c>
+      <c r="J2">
+        <v>0.1833443407357462</v>
+      </c>
+      <c r="K2">
+        <v>0.0599283731673915</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -769,33 +805,57 @@
       <c r="G3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B4">
-        <v>0.02839238157970893</v>
+        <v>0.02118054108362436</v>
       </c>
       <c r="C4">
-        <v>0.181117585084013</v>
+        <v>-0.1504766809560305</v>
       </c>
       <c r="D4">
-        <v>0.03114529383122266</v>
+        <v>-0.06739517476246568</v>
       </c>
       <c r="E4">
-        <v>0.1143517531857685</v>
+        <v>0.03252340516850043</v>
       </c>
       <c r="F4">
-        <v>0.05045658382224263</v>
+        <v>-0.07775692872812849</v>
       </c>
       <c r="G4">
-        <v>0.02464865893299431</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>0.01585359873049162</v>
+      </c>
+      <c r="H4">
+        <v>-0.102174152508723</v>
+      </c>
+      <c r="I4">
+        <v>-0.01042967464263658</v>
+      </c>
+      <c r="J4">
+        <v>0.1697738977591515</v>
+      </c>
+      <c r="K4">
+        <v>-0.08856313846258708</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -815,263 +875,407 @@
       <c r="G5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B6">
-        <v>0.03132098542444996</v>
+        <v>0.04021238066335181</v>
       </c>
       <c r="C6">
-        <v>0.0809842730905842</v>
+        <v>-0.08794713837027839</v>
       </c>
       <c r="D6">
-        <v>0.04668686649733698</v>
+        <v>-0.02739190792699688</v>
       </c>
       <c r="E6">
-        <v>0.06375475253139619</v>
+        <v>-0.04078760151454004</v>
       </c>
       <c r="F6">
-        <v>-0.01052841329442208</v>
+        <v>-0.02644210834385018</v>
       </c>
       <c r="G6">
-        <v>-0.01380002386492472</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>0.04152495257652269</v>
+      </c>
+      <c r="H6">
+        <v>-0.0264706707481157</v>
+      </c>
+      <c r="I6">
+        <v>0.07418414827711096</v>
+      </c>
+      <c r="J6">
+        <v>0.05868861667200686</v>
+      </c>
+      <c r="K6">
+        <v>0.0394007683455744</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B7">
-        <v>-0.004849325971706436</v>
+        <v>0.01466639601639356</v>
       </c>
       <c r="C7">
-        <v>0.05286333793071791</v>
+        <v>-0.06939062028809659</v>
       </c>
       <c r="D7">
-        <v>0.01966873485517592</v>
+        <v>-0.02382407660602159</v>
       </c>
       <c r="E7">
-        <v>0.05159206565164224</v>
+        <v>0.01980938564207836</v>
       </c>
       <c r="F7">
-        <v>0.0418122683104187</v>
+        <v>-0.003606323161382503</v>
       </c>
       <c r="G7">
-        <v>-0.002680284956210842</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>0.05279482931867371</v>
+      </c>
+      <c r="H7">
+        <v>-0.1011344833171424</v>
+      </c>
+      <c r="I7">
+        <v>0.008001798127397198</v>
+      </c>
+      <c r="J7">
+        <v>0.0353411456063009</v>
+      </c>
+      <c r="K7">
+        <v>-0.008672119987691415</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B8">
-        <v>-0.003166784500838483</v>
+        <v>0.0002175305362845655</v>
       </c>
       <c r="C8">
-        <v>0.06775595881253813</v>
+        <v>-0.06392610435375558</v>
       </c>
       <c r="D8">
-        <v>0.02114818203628719</v>
+        <v>-0.04251216529269458</v>
       </c>
       <c r="E8">
-        <v>0.1008484398539555</v>
+        <v>-0.008792047017909355</v>
       </c>
       <c r="F8">
-        <v>0.01340243764998053</v>
+        <v>-0.06599918758691453</v>
       </c>
       <c r="G8">
-        <v>0.03020046948854664</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>-0.007985753218239527</v>
+      </c>
+      <c r="H8">
+        <v>-0.05650240768357548</v>
+      </c>
+      <c r="I8">
+        <v>0.0005341957026417792</v>
+      </c>
+      <c r="J8">
+        <v>0.002176791030268031</v>
+      </c>
+      <c r="K8">
+        <v>0.008026178137751557</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B9">
-        <v>0.01817543534205808</v>
+        <v>0.01544443617472443</v>
       </c>
       <c r="C9">
-        <v>0.1378253892885449</v>
+        <v>-0.1108263211828833</v>
       </c>
       <c r="D9">
-        <v>0.03568909195432738</v>
+        <v>-0.04473664705957259</v>
       </c>
       <c r="E9">
-        <v>0.05772775854068718</v>
+        <v>0.004337107430712402</v>
       </c>
       <c r="F9">
-        <v>0.02520858094123146</v>
+        <v>-0.03480758724340845</v>
       </c>
       <c r="G9">
-        <v>-0.02899400801068303</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>0.006323675126463362</v>
+      </c>
+      <c r="H9">
+        <v>-0.09320715563130574</v>
+      </c>
+      <c r="I9">
+        <v>0.02099212043017976</v>
+      </c>
+      <c r="J9">
+        <v>0.07689605733066295</v>
+      </c>
+      <c r="K9">
+        <v>-0.05944241174530657</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B10">
-        <v>0.2673064805978015</v>
+        <v>0.2476393155892563</v>
       </c>
       <c r="C10">
-        <v>-0.1052547342975711</v>
+        <v>0.09925089483157441</v>
       </c>
       <c r="D10">
-        <v>-0.02915928348959743</v>
+        <v>0.006028473991688784</v>
       </c>
       <c r="E10">
-        <v>-0.02216197154972024</v>
+        <v>-0.0103806614808377</v>
       </c>
       <c r="F10">
-        <v>0.02310369567837266</v>
+        <v>0.00533156905792239</v>
       </c>
       <c r="G10">
-        <v>-0.02077815326977922</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>0.02685482101726277</v>
+      </c>
+      <c r="H10">
+        <v>-0.0428476032875126</v>
+      </c>
+      <c r="I10">
+        <v>-0.1743877909323852</v>
+      </c>
+      <c r="J10">
+        <v>-0.08101068491452312</v>
+      </c>
+      <c r="K10">
+        <v>-0.05532035040293105</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B11">
-        <v>0.01334062626737408</v>
+        <v>0.01771420615836214</v>
       </c>
       <c r="C11">
-        <v>0.06593099666105202</v>
+        <v>-0.08274481105990909</v>
       </c>
       <c r="D11">
-        <v>0.02177020635717912</v>
+        <v>-0.03622084826268087</v>
       </c>
       <c r="E11">
-        <v>0.0006121533346723123</v>
+        <v>0.009588361053171898</v>
       </c>
       <c r="F11">
-        <v>0.04059223626210803</v>
+        <v>0.008695660880019187</v>
       </c>
       <c r="G11">
-        <v>-0.04243335370920381</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>0.0148151690045542</v>
+      </c>
+      <c r="H11">
+        <v>-0.03595704247775946</v>
+      </c>
+      <c r="I11">
+        <v>0.01950157394384639</v>
+      </c>
+      <c r="J11">
+        <v>-0.02325013395295221</v>
+      </c>
+      <c r="K11">
+        <v>-0.0324139528595416</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B12">
-        <v>0.01094330810648231</v>
+        <v>0.01709820006300131</v>
       </c>
       <c r="C12">
-        <v>0.05582057784188482</v>
+        <v>-0.05942446660364712</v>
       </c>
       <c r="D12">
-        <v>0.02632494686058471</v>
+        <v>-0.02119146326526209</v>
       </c>
       <c r="E12">
-        <v>-0.0005072074564890125</v>
+        <v>-0.01595316496458834</v>
       </c>
       <c r="F12">
-        <v>0.01015727594267293</v>
+        <v>0.01301502393653833</v>
       </c>
       <c r="G12">
-        <v>-0.07328543290290813</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>0.03191185169730489</v>
+      </c>
+      <c r="H12">
+        <v>-0.0322588692973892</v>
+      </c>
+      <c r="I12">
+        <v>0.01595994734457032</v>
+      </c>
+      <c r="J12">
+        <v>-0.01059718013501028</v>
+      </c>
+      <c r="K12">
+        <v>-0.0323466640508932</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B13">
-        <v>0.02067635359276675</v>
+        <v>0.007490392595958362</v>
       </c>
       <c r="C13">
-        <v>0.1188560771639221</v>
+        <v>-0.1176096870997241</v>
       </c>
       <c r="D13">
-        <v>0.04646469558735204</v>
+        <v>-0.0399213549294896</v>
       </c>
       <c r="E13">
-        <v>0.06576438979067331</v>
+        <v>-0.1228786924936497</v>
       </c>
       <c r="F13">
-        <v>0.03218664835486504</v>
+        <v>-0.09582765841914363</v>
       </c>
       <c r="G13">
-        <v>-0.1735057859939938</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>0.1338352477921453</v>
+      </c>
+      <c r="H13">
+        <v>-0.1263566017832948</v>
+      </c>
+      <c r="I13">
+        <v>-0.1953040110417878</v>
+      </c>
+      <c r="J13">
+        <v>-0.1855424268971443</v>
+      </c>
+      <c r="K13">
+        <v>0.1478287138774003</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B14">
-        <v>0.01285444522646292</v>
+        <v>0.01922524586116948</v>
       </c>
       <c r="C14">
-        <v>0.06214786157918755</v>
+        <v>-0.07316237827741694</v>
       </c>
       <c r="D14">
-        <v>0.02300538713072361</v>
+        <v>-0.04782223747093024</v>
       </c>
       <c r="E14">
-        <v>0.04915203111159457</v>
+        <v>-0.04287114310778663</v>
       </c>
       <c r="F14">
-        <v>-0.0003799242848925416</v>
+        <v>0.0017702915217806</v>
       </c>
       <c r="G14">
-        <v>-0.06931169594486652</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>0.09086255606854778</v>
+      </c>
+      <c r="H14">
+        <v>-0.2018941226475257</v>
+      </c>
+      <c r="I14">
+        <v>0.03579555511447383</v>
+      </c>
+      <c r="J14">
+        <v>-0.1137872789554842</v>
+      </c>
+      <c r="K14">
+        <v>0.1092125273148602</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
       <c r="A15" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B15">
-        <v>0.009601613774395086</v>
+        <v>0.002028415348583587</v>
       </c>
       <c r="C15">
-        <v>0.0947211558745483</v>
+        <v>-0.07876796642934077</v>
       </c>
       <c r="D15">
-        <v>0.03030938034588599</v>
+        <v>-0.03350550702788577</v>
       </c>
       <c r="E15">
-        <v>0.07900268272597062</v>
+        <v>0.0009733419145686504</v>
       </c>
       <c r="F15">
-        <v>0.02394080686272777</v>
+        <v>-0.02583368564165956</v>
       </c>
       <c r="G15">
-        <v>-0.02914488163735575</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
+        <v>0.03820410606114467</v>
+      </c>
+      <c r="H15">
+        <v>-0.08632753796251348</v>
+      </c>
+      <c r="I15">
+        <v>0.02329750114038103</v>
+      </c>
+      <c r="J15">
+        <v>-0.05892455184146586</v>
+      </c>
+      <c r="K15">
+        <v>-0.007575398243853729</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
       <c r="A16" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B16">
-        <v>0.01538657225838118</v>
+        <v>0.01646929223447226</v>
       </c>
       <c r="C16">
-        <v>0.06022028579427133</v>
+        <v>-0.06338427335401858</v>
       </c>
       <c r="D16">
-        <v>0.01343756670711331</v>
+        <v>-0.02516588002060196</v>
       </c>
       <c r="E16">
-        <v>-0.0007838527742754744</v>
+        <v>0.003831947879838646</v>
       </c>
       <c r="F16">
-        <v>0.01687233316278354</v>
+        <v>0.005633720728281655</v>
       </c>
       <c r="G16">
-        <v>-0.03538005590400421</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>0.01244920931756801</v>
+      </c>
+      <c r="H16">
+        <v>-0.02787091945466405</v>
+      </c>
+      <c r="I16">
+        <v>0.01709811454068868</v>
+      </c>
+      <c r="J16">
+        <v>-0.00687080963876742</v>
+      </c>
+      <c r="K16">
+        <v>-0.02320490732543648</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1091,10 +1295,22 @@
       <c r="G17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
       <c r="A18" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1114,10 +1330,22 @@
       <c r="G18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
       <c r="A19" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -1137,171 +1365,267 @@
       <c r="G19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:7">
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
       <c r="A20" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B20">
-        <v>0.01537216087056829</v>
+        <v>0.01438619054596015</v>
       </c>
       <c r="C20">
-        <v>0.08818222807982688</v>
+        <v>-0.08588207555855386</v>
       </c>
       <c r="D20">
-        <v>0.01402399636684804</v>
+        <v>-0.02430222739228448</v>
       </c>
       <c r="E20">
-        <v>0.025600203983742</v>
+        <v>0.02757129428754277</v>
       </c>
       <c r="F20">
-        <v>0.07158800781179914</v>
+        <v>0.0004875728565396781</v>
       </c>
       <c r="G20">
-        <v>-0.07874540566183795</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>0.04605213644227443</v>
+      </c>
+      <c r="H20">
+        <v>-0.07144090845963694</v>
+      </c>
+      <c r="I20">
+        <v>0.02026702358719841</v>
+      </c>
+      <c r="J20">
+        <v>0.0132016658185462</v>
+      </c>
+      <c r="K20">
+        <v>-0.02442994716901804</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
       <c r="A21" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B21">
-        <v>0.004032720095842669</v>
+        <v>0.01478270119116489</v>
       </c>
       <c r="C21">
-        <v>0.08839547410571902</v>
+        <v>-0.07461761154454494</v>
       </c>
       <c r="D21">
-        <v>-0.03050513891139737</v>
+        <v>-0.02298530529155537</v>
       </c>
       <c r="E21">
-        <v>0.05557513897630474</v>
+        <v>-0.08279557304806394</v>
       </c>
       <c r="F21">
-        <v>-0.03075918816208266</v>
+        <v>-0.01355976425115852</v>
       </c>
       <c r="G21">
-        <v>-0.05573302527486858</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>0.0288897395624944</v>
+      </c>
+      <c r="H21">
+        <v>-0.1442584591340272</v>
+      </c>
+      <c r="I21">
+        <v>-0.02851026978614489</v>
+      </c>
+      <c r="J21">
+        <v>-0.04419270749283116</v>
+      </c>
+      <c r="K21">
+        <v>0.01623628508665595</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
       <c r="A22" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B22">
-        <v>0.04782834831979131</v>
+        <v>0.008081859827503295</v>
       </c>
       <c r="C22">
-        <v>0.1731253260302946</v>
+        <v>-0.1683213847036078</v>
       </c>
       <c r="D22">
-        <v>-0.1018767555604841</v>
+        <v>-0.01357460632678329</v>
       </c>
       <c r="E22">
-        <v>0.291943779555657</v>
+        <v>0.04591638773025997</v>
       </c>
       <c r="F22">
-        <v>0.0861733603220361</v>
+        <v>-0.5230113033986992</v>
       </c>
       <c r="G22">
-        <v>0.213365735842188</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
+        <v>-0.0216532472588684</v>
+      </c>
+      <c r="H22">
+        <v>0.3089251066769121</v>
+      </c>
+      <c r="I22">
+        <v>-0.03409820193666371</v>
+      </c>
+      <c r="J22">
+        <v>-0.2226677222037865</v>
+      </c>
+      <c r="K22">
+        <v>-0.02640368550515678</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
       <c r="A23" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B23">
-        <v>0.04762746015865385</v>
+        <v>0.01288175938166689</v>
       </c>
       <c r="C23">
-        <v>0.1738129844817426</v>
+        <v>-0.172008063342754</v>
       </c>
       <c r="D23">
-        <v>-0.101586321332295</v>
+        <v>-0.01264775276841029</v>
       </c>
       <c r="E23">
-        <v>0.2875781010587959</v>
+        <v>0.04351480745458394</v>
       </c>
       <c r="F23">
-        <v>0.08537233252433939</v>
+        <v>-0.5050570047860662</v>
       </c>
       <c r="G23">
-        <v>0.2127382758095773</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
+        <v>-0.01798016459801977</v>
+      </c>
+      <c r="H23">
+        <v>0.2879399111490322</v>
+      </c>
+      <c r="I23">
+        <v>-0.02631098767749773</v>
+      </c>
+      <c r="J23">
+        <v>-0.2097124868981258</v>
+      </c>
+      <c r="K23">
+        <v>-0.03340209993460435</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
       <c r="A24" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B24">
-        <v>0.008910609893254819</v>
+        <v>0.01738570158504221</v>
       </c>
       <c r="C24">
-        <v>0.06706266086620868</v>
+        <v>-0.07003344434190091</v>
       </c>
       <c r="D24">
-        <v>0.03693985254211181</v>
+        <v>-0.03807034062969381</v>
       </c>
       <c r="E24">
-        <v>0.003263337031310627</v>
+        <v>0.00709269301794736</v>
       </c>
       <c r="F24">
-        <v>0.02911598138356991</v>
+        <v>0.008098940027152338</v>
       </c>
       <c r="G24">
-        <v>-0.05563943835163045</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+        <v>0.02676935341778543</v>
+      </c>
+      <c r="H24">
+        <v>-0.04408998989926408</v>
+      </c>
+      <c r="I24">
+        <v>0.01911203185621611</v>
+      </c>
+      <c r="J24">
+        <v>-0.01629892184013266</v>
+      </c>
+      <c r="K24">
+        <v>-0.03384764534087933</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
       <c r="A25" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B25">
-        <v>0.01375276110513872</v>
+        <v>0.02180910280292484</v>
       </c>
       <c r="C25">
-        <v>0.06383319024518283</v>
+        <v>-0.0692468276498265</v>
       </c>
       <c r="D25">
-        <v>0.01222109646470823</v>
+        <v>-0.02653829173262423</v>
       </c>
       <c r="E25">
-        <v>-0.004501938419675324</v>
+        <v>0.009411179860221181</v>
       </c>
       <c r="F25">
-        <v>0.03438730972684643</v>
+        <v>0.004944252968579829</v>
       </c>
       <c r="G25">
-        <v>-0.05357257089881921</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+        <v>0.02423752731167953</v>
+      </c>
+      <c r="H25">
+        <v>-0.0378503834002175</v>
+      </c>
+      <c r="I25">
+        <v>0.006054349842350809</v>
+      </c>
+      <c r="J25">
+        <v>-0.02726655100691767</v>
+      </c>
+      <c r="K25">
+        <v>-0.02546001412825471</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
       <c r="A26" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B26">
-        <v>0.007893649835094486</v>
+        <v>0.02396587649371266</v>
       </c>
       <c r="C26">
-        <v>0.06034901838969657</v>
+        <v>-0.05988803988759563</v>
       </c>
       <c r="D26">
-        <v>0.05354269479866827</v>
+        <v>-0.06304290034357826</v>
       </c>
       <c r="E26">
-        <v>0.02635015750285231</v>
+        <v>0.005673129933633644</v>
       </c>
       <c r="F26">
-        <v>-0.002590040606929798</v>
+        <v>0.01603959558691182</v>
       </c>
       <c r="G26">
-        <v>-0.04244829204407811</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+        <v>0.004032562188060669</v>
+      </c>
+      <c r="H26">
+        <v>-0.1051728401604632</v>
+      </c>
+      <c r="I26">
+        <v>0.04899518550180011</v>
+      </c>
+      <c r="J26">
+        <v>0.09750131611611933</v>
+      </c>
+      <c r="K26">
+        <v>-0.08996234664385128</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
       <c r="A27" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1321,217 +1645,337 @@
       <c r="G27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:7">
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
       <c r="A28" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B28">
-        <v>0.3713023004486746</v>
+        <v>0.3186712251437825</v>
       </c>
       <c r="C28">
-        <v>-0.1288905030687384</v>
+        <v>0.1144039662372344</v>
       </c>
       <c r="D28">
-        <v>-0.03716761096007223</v>
+        <v>0.0343670885065805</v>
       </c>
       <c r="E28">
-        <v>-0.1068149460757572</v>
+        <v>-0.0144193888904195</v>
       </c>
       <c r="F28">
-        <v>-0.03393766899753926</v>
+        <v>-0.04501901571080261</v>
       </c>
       <c r="G28">
-        <v>-0.0005546426372600342</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+        <v>-0.1128350400559855</v>
+      </c>
+      <c r="H28">
+        <v>-0.07337942393243831</v>
+      </c>
+      <c r="I28">
+        <v>-0.2328693465543162</v>
+      </c>
+      <c r="J28">
+        <v>0.008257716740789034</v>
+      </c>
+      <c r="K28">
+        <v>-0.01568817638432407</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
       <c r="A29" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B29">
-        <v>0.01380675756123716</v>
+        <v>0.01407197591381664</v>
       </c>
       <c r="C29">
-        <v>0.07065607846092938</v>
+        <v>-0.0802793777971786</v>
       </c>
       <c r="D29">
-        <v>0.03913768902218742</v>
+        <v>-0.05376717214423493</v>
       </c>
       <c r="E29">
-        <v>0.05549319288918415</v>
+        <v>-0.05130581510031958</v>
       </c>
       <c r="F29">
-        <v>0.01546340909025668</v>
+        <v>-0.005395755450252358</v>
       </c>
       <c r="G29">
-        <v>-0.09993616437795316</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+        <v>0.1348667758317103</v>
+      </c>
+      <c r="H29">
+        <v>-0.2844516993779783</v>
+      </c>
+      <c r="I29">
+        <v>0.03274961986416364</v>
+      </c>
+      <c r="J29">
+        <v>-0.1690760435948299</v>
+      </c>
+      <c r="K29">
+        <v>0.201997836108813</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
       <c r="A30" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B30">
-        <v>0.04002156358017081</v>
+        <v>0.03181825377604876</v>
       </c>
       <c r="C30">
-        <v>0.173555086576647</v>
+        <v>-0.1453996489980703</v>
       </c>
       <c r="D30">
-        <v>0.04922837528162805</v>
+        <v>-0.05596980143696637</v>
       </c>
       <c r="E30">
-        <v>0.06703739809092492</v>
+        <v>0.007853845961500964</v>
       </c>
       <c r="F30">
-        <v>0.0398305623489544</v>
+        <v>-0.0678776887333661</v>
       </c>
       <c r="G30">
-        <v>0.01097617593516073</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+        <v>0.01115353655611715</v>
+      </c>
+      <c r="H30">
+        <v>-0.02731773516629306</v>
+      </c>
+      <c r="I30">
+        <v>0.0490915076259163</v>
+      </c>
+      <c r="J30">
+        <v>0.08681019648085296</v>
+      </c>
+      <c r="K30">
+        <v>-0.02745146054729913</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
       <c r="A31" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B31">
-        <v>0.002376752724278724</v>
+        <v>0.01387555244455742</v>
       </c>
       <c r="C31">
-        <v>0.07359773438591558</v>
+        <v>-0.08575569234745128</v>
       </c>
       <c r="D31">
-        <v>0.03978274955430305</v>
+        <v>-0.04201862787037242</v>
       </c>
       <c r="E31">
-        <v>-0.01855318159460262</v>
+        <v>-0.002331847104394704</v>
       </c>
       <c r="F31">
-        <v>-0.01110448790614052</v>
+        <v>0.00729952761930346</v>
       </c>
       <c r="G31">
-        <v>-0.02107654911218272</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+        <v>-0.03098990517374015</v>
+      </c>
+      <c r="H31">
+        <v>-0.02992033370817978</v>
+      </c>
+      <c r="I31">
+        <v>0.01440257328306727</v>
+      </c>
+      <c r="J31">
+        <v>-0.03362424970407402</v>
+      </c>
+      <c r="K31">
+        <v>-0.02087328456696562</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
       <c r="A32" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B32">
-        <v>0.03046291345540468</v>
+        <v>0.02512445764610741</v>
       </c>
       <c r="C32">
-        <v>0.08560133998110291</v>
+        <v>-0.05839677793798573</v>
       </c>
       <c r="D32">
-        <v>-0.008014686114529898</v>
+        <v>-0.01978062113327996</v>
       </c>
       <c r="E32">
-        <v>0.1718388901829401</v>
+        <v>-0.07337118730456976</v>
       </c>
       <c r="F32">
-        <v>-0.01470984236755395</v>
+        <v>-0.09827553739078115</v>
       </c>
       <c r="G32">
-        <v>-0.0656054221587286</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+        <v>0.08449872952613194</v>
+      </c>
+      <c r="H32">
+        <v>-0.1683692461304853</v>
+      </c>
+      <c r="I32">
+        <v>-0.2232640883825391</v>
+      </c>
+      <c r="J32">
+        <v>0.009800426033697247</v>
+      </c>
+      <c r="K32">
+        <v>0.2083996701395203</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
       <c r="A33" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B33">
-        <v>0.01747011965499317</v>
+        <v>0.01694630639746135</v>
       </c>
       <c r="C33">
-        <v>0.08998399855705579</v>
+        <v>-0.1068751362436315</v>
       </c>
       <c r="D33">
-        <v>0.05098817968938862</v>
+        <v>-0.04557549309315902</v>
       </c>
       <c r="E33">
-        <v>0.02274470447203982</v>
+        <v>0.007574226830633181</v>
       </c>
       <c r="F33">
-        <v>0.006897669319810798</v>
+        <v>-0.0146625936214208</v>
       </c>
       <c r="G33">
-        <v>-0.03483789230337619</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+        <v>0.02840046874963358</v>
+      </c>
+      <c r="H33">
+        <v>-0.05843107223973094</v>
+      </c>
+      <c r="I33">
+        <v>-0.01542652843576027</v>
+      </c>
+      <c r="J33">
+        <v>-0.007224068430060501</v>
+      </c>
+      <c r="K33">
+        <v>-0.01989295806916108</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
       <c r="A34" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B34">
-        <v>0.007113732097052222</v>
+        <v>0.01697946734820669</v>
       </c>
       <c r="C34">
-        <v>0.0488500876652196</v>
+        <v>-0.05055700895748955</v>
       </c>
       <c r="D34">
-        <v>0.01972370990274837</v>
+        <v>-0.01996229264394919</v>
       </c>
       <c r="E34">
-        <v>0.01010365843722874</v>
+        <v>-0.0004564361828854961</v>
       </c>
       <c r="F34">
-        <v>0.008538877226886512</v>
+        <v>0.007724864814432381</v>
       </c>
       <c r="G34">
-        <v>-0.04127567764770434</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+        <v>0.01841073862076128</v>
+      </c>
+      <c r="H34">
+        <v>-0.01239790762600622</v>
+      </c>
+      <c r="I34">
+        <v>0.009863451237364042</v>
+      </c>
+      <c r="J34">
+        <v>-0.01378050793793861</v>
+      </c>
+      <c r="K34">
+        <v>-0.03246850503802713</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
       <c r="A35" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B35">
-        <v>0.003365556457165946</v>
+        <v>0.008968812405485345</v>
       </c>
       <c r="C35">
-        <v>0.01648195406781358</v>
+        <v>-0.04089492054833165</v>
       </c>
       <c r="D35">
-        <v>0.004364811842772514</v>
+        <v>-0.02082692627778954</v>
       </c>
       <c r="E35">
-        <v>0.01505699362306651</v>
+        <v>-0.01259908095094547</v>
       </c>
       <c r="F35">
-        <v>0.008447324838576145</v>
+        <v>-0.004746863363944902</v>
       </c>
       <c r="G35">
-        <v>-0.027252349221051</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7">
+        <v>0.05385941273126047</v>
+      </c>
+      <c r="H35">
+        <v>-0.1428659876958546</v>
+      </c>
+      <c r="I35">
+        <v>-0.001337925622493023</v>
+      </c>
+      <c r="J35">
+        <v>-0.1398518122214195</v>
+      </c>
+      <c r="K35">
+        <v>0.09051491644147124</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
       <c r="A36" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B36">
-        <v>0.008288188498663217</v>
+        <v>0.01605826626433277</v>
       </c>
       <c r="C36">
-        <v>0.05392134584028566</v>
+        <v>-0.04823365923795036</v>
       </c>
       <c r="D36">
-        <v>0.04843209889187684</v>
+        <v>-0.04755086344775706</v>
       </c>
       <c r="E36">
-        <v>0.01596308881574502</v>
+        <v>-0.001238922380285205</v>
       </c>
       <c r="F36">
-        <v>-0.001426457300007119</v>
+        <v>-0.002653581416382245</v>
       </c>
       <c r="G36">
-        <v>-0.02035564294773882</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
+        <v>0.003015390600140597</v>
+      </c>
+      <c r="H36">
+        <v>-0.07457333456759169</v>
+      </c>
+      <c r="I36">
+        <v>0.01781705919734055</v>
+      </c>
+      <c r="J36">
+        <v>0.03389022378900568</v>
+      </c>
+      <c r="K36">
+        <v>-0.05776161953590055</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
       <c r="A37" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1551,102 +1995,162 @@
       <c r="G37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:7">
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
       <c r="A38" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B38">
-        <v>0.02957931258443919</v>
+        <v>0.01214762256198138</v>
       </c>
       <c r="C38">
-        <v>0.05110448600996022</v>
+        <v>-0.06123249162967894</v>
       </c>
       <c r="D38">
-        <v>0.0324168449545378</v>
+        <v>-0.03874199746435397</v>
       </c>
       <c r="E38">
-        <v>0.00628017575953461</v>
+        <v>0.03099781662946381</v>
       </c>
       <c r="F38">
-        <v>0.01542237896616529</v>
+        <v>-0.01261307616030885</v>
       </c>
       <c r="G38">
-        <v>-0.007099710547505934</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
+        <v>0.0008287724887379123</v>
+      </c>
+      <c r="H38">
+        <v>-0.08761020969398001</v>
+      </c>
+      <c r="I38">
+        <v>-0.0583424947049813</v>
+      </c>
+      <c r="J38">
+        <v>-0.04033060308499153</v>
+      </c>
+      <c r="K38">
+        <v>-0.04347972324859913</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
       <c r="A39" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B39">
-        <v>0.009797133634523043</v>
+        <v>0.01822451404169337</v>
       </c>
       <c r="C39">
-        <v>0.1318036692754237</v>
+        <v>-0.1269938580117053</v>
       </c>
       <c r="D39">
-        <v>0.03433386063506429</v>
+        <v>-0.05236516188595027</v>
       </c>
       <c r="E39">
-        <v>0.0315754059275301</v>
+        <v>-0.002008737439364927</v>
       </c>
       <c r="F39">
-        <v>0.04050040068577124</v>
+        <v>-0.003710458192260941</v>
       </c>
       <c r="G39">
-        <v>-0.0711648636492262</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
+        <v>0.04305918498119959</v>
+      </c>
+      <c r="H39">
+        <v>-0.04825270417879533</v>
+      </c>
+      <c r="I39">
+        <v>0.07135384615650395</v>
+      </c>
+      <c r="J39">
+        <v>0.01294741851753626</v>
+      </c>
+      <c r="K39">
+        <v>-0.03701998688317293</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
       <c r="A40" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B40">
-        <v>0.0142938138496818</v>
+        <v>0.01571374989194065</v>
       </c>
       <c r="C40">
-        <v>0.03173614739750744</v>
+        <v>-0.06196923585125422</v>
       </c>
       <c r="D40">
-        <v>0.03174464848899935</v>
+        <v>-0.03873854106766959</v>
       </c>
       <c r="E40">
-        <v>0.1475147350227107</v>
+        <v>-0.02572320946606924</v>
       </c>
       <c r="F40">
-        <v>0.04287322848595615</v>
+        <v>-0.04326965937336039</v>
       </c>
       <c r="G40">
-        <v>-0.07026789587421094</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
+        <v>0.1511150885434925</v>
+      </c>
+      <c r="H40">
+        <v>-0.03546808726124926</v>
+      </c>
+      <c r="I40">
+        <v>-0.01235837421672636</v>
+      </c>
+      <c r="J40">
+        <v>-0.2498835094198784</v>
+      </c>
+      <c r="K40">
+        <v>-0.08451988600372966</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
       <c r="A41" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B41">
-        <v>0.01029498616580658</v>
+        <v>0.02067651989831054</v>
       </c>
       <c r="C41">
-        <v>0.01790855144600437</v>
+        <v>-0.04634029678083228</v>
       </c>
       <c r="D41">
-        <v>0.004150695229370213</v>
+        <v>-0.01671651156184576</v>
       </c>
       <c r="E41">
-        <v>-0.02278023903409883</v>
+        <v>0.007665441571904691</v>
       </c>
       <c r="F41">
-        <v>-0.01518827097491261</v>
+        <v>0.0238982363285276</v>
       </c>
       <c r="G41">
-        <v>0.02984035077681465</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
+        <v>-0.006942876172488982</v>
+      </c>
+      <c r="H41">
+        <v>-0.02987966898782693</v>
+      </c>
+      <c r="I41">
+        <v>-0.0349635057497575</v>
+      </c>
+      <c r="J41">
+        <v>-0.0536261918409177</v>
+      </c>
+      <c r="K41">
+        <v>0.001625179902032875</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
       <c r="A42" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1666,56 +2170,92 @@
       <c r="G42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:7">
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
       <c r="A43" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B43">
-        <v>0.004325114376095444</v>
+        <v>0.01745181802367269</v>
       </c>
       <c r="C43">
-        <v>0.01731999624910877</v>
+        <v>-0.04317723717923475</v>
       </c>
       <c r="D43">
-        <v>0.009909360780068129</v>
+        <v>-0.02945153357736698</v>
       </c>
       <c r="E43">
-        <v>0.000708381817092111</v>
+        <v>0.01598336296951123</v>
       </c>
       <c r="F43">
-        <v>0.01648876406647965</v>
+        <v>0.006565784115371379</v>
       </c>
       <c r="G43">
-        <v>0.006127591768842588</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
+        <v>0.0009811189117633853</v>
+      </c>
+      <c r="H43">
+        <v>-0.04757865218562778</v>
+      </c>
+      <c r="I43">
+        <v>-0.005808801131955895</v>
+      </c>
+      <c r="J43">
+        <v>-0.04353525238058036</v>
+      </c>
+      <c r="K43">
+        <v>0.006074464752306077</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
       <c r="A44" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B44">
-        <v>0.02585019811978101</v>
+        <v>0.01206817652520259</v>
       </c>
       <c r="C44">
-        <v>0.08488331161058155</v>
+        <v>-0.09128862614453385</v>
       </c>
       <c r="D44">
-        <v>0.008093608757184447</v>
+        <v>-0.05249470657141164</v>
       </c>
       <c r="E44">
-        <v>0.07623284877900367</v>
+        <v>0.01700553746225722</v>
       </c>
       <c r="F44">
-        <v>0.05495486895173703</v>
+        <v>-0.06805242759789146</v>
       </c>
       <c r="G44">
-        <v>-0.01619564011490677</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
+        <v>0.04774007327516649</v>
+      </c>
+      <c r="H44">
+        <v>-0.05018949600368052</v>
+      </c>
+      <c r="I44">
+        <v>0.05074906695462027</v>
+      </c>
+      <c r="J44">
+        <v>0.05545270107342275</v>
+      </c>
+      <c r="K44">
+        <v>0.006202144030201921</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
       <c r="A45" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1735,148 +2275,232 @@
       <c r="G45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:7">
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
       <c r="A46" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B46">
-        <v>-0.003901124631154034</v>
+        <v>0.003448936109448653</v>
       </c>
       <c r="C46">
-        <v>0.067518707298028</v>
+        <v>-0.063655763080255</v>
       </c>
       <c r="D46">
-        <v>0.03835555941853766</v>
+        <v>-0.0296763646310214</v>
       </c>
       <c r="E46">
-        <v>0.04238462526411837</v>
+        <v>-0.008132134813428308</v>
       </c>
       <c r="F46">
-        <v>0.02071681387785126</v>
+        <v>0.009932336525198896</v>
       </c>
       <c r="G46">
-        <v>-0.05929323009583201</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
+        <v>0.04422826853236633</v>
+      </c>
+      <c r="H46">
+        <v>-0.1042315780251942</v>
+      </c>
+      <c r="I46">
+        <v>0.003068291024515303</v>
+      </c>
+      <c r="J46">
+        <v>-0.07873716949291519</v>
+      </c>
+      <c r="K46">
+        <v>0.0417182744658642</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
       <c r="A47" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B47">
-        <v>0.01074865786338117</v>
+        <v>0.02275802407084212</v>
       </c>
       <c r="C47">
-        <v>0.09000574649257789</v>
+        <v>-0.08485939520407632</v>
       </c>
       <c r="D47">
-        <v>0.03775937863288893</v>
+        <v>-0.04375007194194502</v>
       </c>
       <c r="E47">
-        <v>-0.02947257414302354</v>
+        <v>-0.008629576664150904</v>
       </c>
       <c r="F47">
-        <v>-0.02741833010676554</v>
+        <v>0.02487460607142878</v>
       </c>
       <c r="G47">
-        <v>-0.06014347639462276</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
+        <v>0.007559880541995189</v>
+      </c>
+      <c r="H47">
+        <v>-0.06389103659174396</v>
+      </c>
+      <c r="I47">
+        <v>-0.02283419469880159</v>
+      </c>
+      <c r="J47">
+        <v>-0.03445629248441012</v>
+      </c>
+      <c r="K47">
+        <v>-0.01550133534990404</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
       <c r="A48" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B48">
-        <v>0.01323489599718252</v>
+        <v>0.02209374250175018</v>
       </c>
       <c r="C48">
-        <v>0.05319413930509762</v>
+        <v>-0.05260844633228694</v>
       </c>
       <c r="D48">
-        <v>0.05911306572125064</v>
+        <v>-0.05556056326543402</v>
       </c>
       <c r="E48">
-        <v>0.01577040386762881</v>
+        <v>0.007078373555198305</v>
       </c>
       <c r="F48">
-        <v>0.007135593893904636</v>
+        <v>0.001281830914270343</v>
       </c>
       <c r="G48">
-        <v>-0.02432753095609545</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
+        <v>0.007847201310106768</v>
+      </c>
+      <c r="H48">
+        <v>-0.1014730251164795</v>
+      </c>
+      <c r="I48">
+        <v>0.03740948837384012</v>
+      </c>
+      <c r="J48">
+        <v>0.08133759561086604</v>
+      </c>
+      <c r="K48">
+        <v>-0.07053644313701675</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11">
       <c r="A49" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B49">
-        <v>0</v>
+        <v>0.005993321898595401</v>
       </c>
       <c r="C49">
-        <v>0</v>
+        <v>-0.02440491201583065</v>
       </c>
       <c r="D49">
-        <v>0</v>
+        <v>0.001301345388607746</v>
       </c>
       <c r="E49">
-        <v>0</v>
+        <v>0.01225691405810234</v>
       </c>
       <c r="F49">
-        <v>0</v>
+        <v>0.03273311093051648</v>
       </c>
       <c r="G49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7">
+        <v>0.02663737989467238</v>
+      </c>
+      <c r="H49">
+        <v>0.02469023724260946</v>
+      </c>
+      <c r="I49">
+        <v>0.04147080908759396</v>
+      </c>
+      <c r="J49">
+        <v>0.017026907449427</v>
+      </c>
+      <c r="K49">
+        <v>-0.04741555938628708</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11">
       <c r="A50" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B50">
-        <v>0.003173033407378575</v>
+        <v>0.01383206974709341</v>
       </c>
       <c r="C50">
-        <v>0.07961370522341377</v>
+        <v>-0.08190452144003038</v>
       </c>
       <c r="D50">
-        <v>0.0272274793560099</v>
+        <v>-0.02857511972938006</v>
       </c>
       <c r="E50">
-        <v>0.004719142576825638</v>
+        <v>0.002218996662451122</v>
       </c>
       <c r="F50">
-        <v>0.007167001975603988</v>
+        <v>-0.001305662976557628</v>
       </c>
       <c r="G50">
-        <v>-0.01020520241263094</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
+        <v>-0.01094948938508185</v>
+      </c>
+      <c r="H50">
+        <v>-0.05715056469588255</v>
+      </c>
+      <c r="I50">
+        <v>-0.03599412898469738</v>
+      </c>
+      <c r="J50">
+        <v>-0.02219386252357466</v>
+      </c>
+      <c r="K50">
+        <v>0.0001540127641048846</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11">
       <c r="A51" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B51">
-        <v>0.006023190104290225</v>
+        <v>-0.005183427251592193</v>
       </c>
       <c r="C51">
-        <v>0.07500124327663861</v>
+        <v>-0.03889368482223707</v>
       </c>
       <c r="D51">
-        <v>-0.0008554813469536695</v>
+        <v>-0.02221296301957505</v>
       </c>
       <c r="E51">
-        <v>0.09182144809594633</v>
+        <v>-0.009588382500395174</v>
       </c>
       <c r="F51">
-        <v>0.04028170493822644</v>
+        <v>-0.03455687956766975</v>
       </c>
       <c r="G51">
-        <v>-0.01344605160718299</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
+        <v>0.03685678160288045</v>
+      </c>
+      <c r="H51">
+        <v>-0.09410746037822254</v>
+      </c>
+      <c r="I51">
+        <v>0.0245875846253794</v>
+      </c>
+      <c r="J51">
+        <v>0.1145806900121763</v>
+      </c>
+      <c r="K51">
+        <v>-0.01629827064440608</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11">
       <c r="A52" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1896,102 +2520,162 @@
       <c r="G52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:7">
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11">
       <c r="A53" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B53">
-        <v>0.04762509186609543</v>
+        <v>0.05832373105390409</v>
       </c>
       <c r="C53">
-        <v>0.1359196134684918</v>
+        <v>-0.1334226454971357</v>
       </c>
       <c r="D53">
-        <v>0.06275651395678805</v>
+        <v>-0.05504051630198591</v>
       </c>
       <c r="E53">
-        <v>-0.1332857120763941</v>
+        <v>-0.003693394022579967</v>
       </c>
       <c r="F53">
-        <v>-0.01575794089968433</v>
+        <v>0.07087621339674251</v>
       </c>
       <c r="G53">
-        <v>0.02005249994690907</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
+        <v>-0.08392051793275378</v>
+      </c>
+      <c r="H53">
+        <v>0.02052961345032677</v>
+      </c>
+      <c r="I53">
+        <v>-0.04883615579846948</v>
+      </c>
+      <c r="J53">
+        <v>-0.01573568185804038</v>
+      </c>
+      <c r="K53">
+        <v>-0.05621743377360332</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11">
       <c r="A54" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B54">
-        <v>0.01417854594148357</v>
+        <v>0.0191017588380478</v>
       </c>
       <c r="C54">
-        <v>0.06685348034004704</v>
+        <v>-0.07533414165063616</v>
       </c>
       <c r="D54">
-        <v>0.00615508424523693</v>
+        <v>-0.01076632295756405</v>
       </c>
       <c r="E54">
-        <v>-0.005786025168576176</v>
+        <v>-0.002327847576221573</v>
       </c>
       <c r="F54">
-        <v>0.02332675922811206</v>
+        <v>0.01653044414280933</v>
       </c>
       <c r="G54">
-        <v>-0.03486583721480144</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
+        <v>0.02581444937911103</v>
+      </c>
+      <c r="H54">
+        <v>-0.0576936145154711</v>
+      </c>
+      <c r="I54">
+        <v>0.0233784336837547</v>
+      </c>
+      <c r="J54">
+        <v>-0.01296875744736368</v>
+      </c>
+      <c r="K54">
+        <v>0.003904355165084462</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11">
       <c r="A55" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B55">
-        <v>0.03066517607304082</v>
+        <v>0.0336645857646069</v>
       </c>
       <c r="C55">
-        <v>0.09640535910055974</v>
+        <v>-0.09027196877955836</v>
       </c>
       <c r="D55">
-        <v>0.06168112980068991</v>
+        <v>-0.05351086149335082</v>
       </c>
       <c r="E55">
-        <v>-0.07017798944390875</v>
+        <v>0.002849576262923935</v>
       </c>
       <c r="F55">
-        <v>-0.02638913605065011</v>
+        <v>0.05673934796279493</v>
       </c>
       <c r="G55">
-        <v>-0.01274744758552177</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
+        <v>-0.04598620221004163</v>
+      </c>
+      <c r="H55">
+        <v>0.01455119005306142</v>
+      </c>
+      <c r="I55">
+        <v>0.007300337500123814</v>
+      </c>
+      <c r="J55">
+        <v>-0.006156001318956522</v>
+      </c>
+      <c r="K55">
+        <v>-0.03683691059092014</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11">
       <c r="A56" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B56">
-        <v>0.03640472446049256</v>
+        <v>0.04678934609012789</v>
       </c>
       <c r="C56">
-        <v>0.1690673134163656</v>
+        <v>-0.1562018248643562</v>
       </c>
       <c r="D56">
-        <v>0.05414433091648893</v>
+        <v>-0.076629588361808</v>
       </c>
       <c r="E56">
-        <v>-0.1463058124309746</v>
+        <v>-0.0255461687240632</v>
       </c>
       <c r="F56">
-        <v>-0.06825736986743439</v>
+        <v>0.09691268075881888</v>
       </c>
       <c r="G56">
-        <v>0.04736293917321706</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
+        <v>-0.1580314492460333</v>
+      </c>
+      <c r="H56">
+        <v>0.03100832927791014</v>
+      </c>
+      <c r="I56">
+        <v>-0.03460273671023608</v>
+      </c>
+      <c r="J56">
+        <v>0.01937756408433494</v>
+      </c>
+      <c r="K56">
+        <v>-0.04608683967703228</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11">
       <c r="A57" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -2011,286 +2695,442 @@
       <c r="G57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:7">
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11">
       <c r="A58" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B58">
-        <v>0.03500998431750831</v>
+        <v>0.02110241737741015</v>
       </c>
       <c r="C58">
-        <v>0.2667567269892452</v>
+        <v>-0.1784909042484141</v>
       </c>
       <c r="D58">
-        <v>-0.08245867117508081</v>
+        <v>-0.03520490323101895</v>
       </c>
       <c r="E58">
-        <v>0.2808645267035776</v>
+        <v>0.01265488834452631</v>
       </c>
       <c r="F58">
-        <v>0.1634719506113073</v>
+        <v>-0.3307183388436939</v>
       </c>
       <c r="G58">
-        <v>0.2767346181964924</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
+        <v>-0.05587725046261491</v>
+      </c>
+      <c r="H58">
+        <v>-0.02923399533876676</v>
+      </c>
+      <c r="I58">
+        <v>0.01178299208912815</v>
+      </c>
+      <c r="J58">
+        <v>0.4446289864164741</v>
+      </c>
+      <c r="K58">
+        <v>0.1993354248238147</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11">
       <c r="A59" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B59">
-        <v>0.2796392583480646</v>
+        <v>0.2881483298503114</v>
       </c>
       <c r="C59">
-        <v>-0.02233106263378291</v>
+        <v>0.04581824749315114</v>
       </c>
       <c r="D59">
-        <v>-0.050311843212754</v>
+        <v>0.008746016141171752</v>
       </c>
       <c r="E59">
-        <v>0.03826738398835906</v>
+        <v>-0.02793322763430239</v>
       </c>
       <c r="F59">
-        <v>-0.04566773691267634</v>
+        <v>-0.04008923113265395</v>
       </c>
       <c r="G59">
-        <v>-0.02889722493928934</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7">
+        <v>0.00130393756097822</v>
+      </c>
+      <c r="H59">
+        <v>0.02318296946554904</v>
+      </c>
+      <c r="I59">
+        <v>-0.03303794671438693</v>
+      </c>
+      <c r="J59">
+        <v>-0.02216936593935117</v>
+      </c>
+      <c r="K59">
+        <v>-0.02100806277324602</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11">
       <c r="A60" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B60">
-        <v>0.1291347264143716</v>
+        <v>0.151734871854792</v>
       </c>
       <c r="C60">
-        <v>0.1514313891904196</v>
+        <v>-0.1568552543523805</v>
       </c>
       <c r="D60">
-        <v>0.06336173110183783</v>
+        <v>-0.04164578936990913</v>
       </c>
       <c r="E60">
-        <v>-0.06996597339516794</v>
+        <v>-0.02755639497805407</v>
       </c>
       <c r="F60">
-        <v>0.03116139719640106</v>
+        <v>0.1262619349857402</v>
       </c>
       <c r="G60">
-        <v>-0.2929005620197224</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7">
+        <v>0.2420842810225795</v>
+      </c>
+      <c r="H60">
+        <v>0.2442630912843682</v>
+      </c>
+      <c r="I60">
+        <v>0.01976629482443777</v>
+      </c>
+      <c r="J60">
+        <v>0.01045035485264688</v>
+      </c>
+      <c r="K60">
+        <v>0.05997689658820454</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11">
       <c r="A61" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B61">
-        <v>0.008101986690407273</v>
+        <v>0.0204724541938202</v>
       </c>
       <c r="C61">
-        <v>0.09411826686380108</v>
+        <v>-0.1002159784380951</v>
       </c>
       <c r="D61">
-        <v>0.05007542836578576</v>
+        <v>-0.05159568470716303</v>
       </c>
       <c r="E61">
-        <v>-0.0137981359443477</v>
+        <v>-0.005355059051275865</v>
       </c>
       <c r="F61">
-        <v>0.01506827722827963</v>
+        <v>0.0315802723048356</v>
       </c>
       <c r="G61">
-        <v>-0.07642905624380648</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
+        <v>0.02535133440703162</v>
+      </c>
+      <c r="H61">
+        <v>-0.06058705034943019</v>
+      </c>
+      <c r="I61">
+        <v>0.03136797592015701</v>
+      </c>
+      <c r="J61">
+        <v>-0.02220859054951412</v>
+      </c>
+      <c r="K61">
+        <v>-0.04005891182903357</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11">
       <c r="A62" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B62">
-        <v>0</v>
+        <v>-0.001600012256376946</v>
       </c>
       <c r="C62">
-        <v>0</v>
+        <v>-0.01033318345114467</v>
       </c>
       <c r="D62">
-        <v>0</v>
+        <v>-0.002349903513860779</v>
       </c>
       <c r="E62">
-        <v>0</v>
+        <v>0.00628392253190052</v>
       </c>
       <c r="F62">
-        <v>0</v>
+        <v>-0.01313796758344455</v>
       </c>
       <c r="G62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7">
+        <v>0.02132397396424043</v>
+      </c>
+      <c r="H62">
+        <v>-0.004951895645443557</v>
+      </c>
+      <c r="I62">
+        <v>0.001522842486973801</v>
+      </c>
+      <c r="J62">
+        <v>-0.007300676820365306</v>
+      </c>
+      <c r="K62">
+        <v>-0.01753612770149392</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11">
       <c r="A63" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B63">
-        <v>0.0006167173335011221</v>
+        <v>0.02619554499831936</v>
       </c>
       <c r="C63">
-        <v>0.07158429004339623</v>
+        <v>-0.07172548270742984</v>
       </c>
       <c r="D63">
-        <v>0.03576782233424786</v>
+        <v>-0.05918802474380287</v>
       </c>
       <c r="E63">
-        <v>-0.009529668576108759</v>
+        <v>-0.004194099698188643</v>
       </c>
       <c r="F63">
-        <v>0.02422833817375087</v>
+        <v>0.01709964878844569</v>
       </c>
       <c r="G63">
-        <v>-0.03359825865649324</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7">
+        <v>0.009256983472789101</v>
+      </c>
+      <c r="H63">
+        <v>-0.0669676041197282</v>
+      </c>
+      <c r="I63">
+        <v>0.01164663606773557</v>
+      </c>
+      <c r="J63">
+        <v>-0.01827803386733283</v>
+      </c>
+      <c r="K63">
+        <v>-0.06353491708237777</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11">
       <c r="A64" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B64">
-        <v>0.006033547538965275</v>
+        <v>0.01513225469737723</v>
       </c>
       <c r="C64">
-        <v>0.09044740943435717</v>
+        <v>-0.09116880170311019</v>
       </c>
       <c r="D64">
-        <v>0.07123867814676059</v>
+        <v>-0.03467189216621748</v>
       </c>
       <c r="E64">
-        <v>0.02957131232856486</v>
+        <v>0.03387101967784664</v>
       </c>
       <c r="F64">
-        <v>0.0262874908888481</v>
+        <v>-0.03287498759202018</v>
       </c>
       <c r="G64">
-        <v>-0.0503521485986476</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7">
+        <v>0.06773072888887564</v>
+      </c>
+      <c r="H64">
+        <v>-0.03828505244239202</v>
+      </c>
+      <c r="I64">
+        <v>0.03327021938255482</v>
+      </c>
+      <c r="J64">
+        <v>-0.0248449673084317</v>
+      </c>
+      <c r="K64">
+        <v>-0.1165554833209547</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11">
       <c r="A65" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B65">
-        <v>0.01876882681272609</v>
+        <v>0.03158456765900276</v>
       </c>
       <c r="C65">
-        <v>0.08345998105319302</v>
+        <v>-0.09455307264851712</v>
       </c>
       <c r="D65">
-        <v>0.03403396017940222</v>
+        <v>-0.0187887796431326</v>
       </c>
       <c r="E65">
-        <v>0.03346751616496089</v>
+        <v>0.0294054316971635</v>
       </c>
       <c r="F65">
-        <v>0.02177128474456435</v>
+        <v>-0.003287288354346788</v>
       </c>
       <c r="G65">
-        <v>-0.01495672730445323</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7">
+        <v>0.09396569800458303</v>
+      </c>
+      <c r="H65">
+        <v>0.008104544247755075</v>
+      </c>
+      <c r="I65">
+        <v>0.07141218597716556</v>
+      </c>
+      <c r="J65">
+        <v>0.07926819328245213</v>
+      </c>
+      <c r="K65">
+        <v>0.01078532569296186</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11">
       <c r="A66" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B66">
-        <v>0.0105843277951942</v>
+        <v>0.01360480242761387</v>
       </c>
       <c r="C66">
-        <v>0.1659562335583436</v>
+        <v>-0.1627118375573948</v>
       </c>
       <c r="D66">
-        <v>0.01638358466137337</v>
+        <v>-0.04431469210137299</v>
       </c>
       <c r="E66">
-        <v>0.07050910406798189</v>
+        <v>-0.01332419189518628</v>
       </c>
       <c r="F66">
-        <v>0.02784146637120421</v>
+        <v>-0.01405951792768169</v>
       </c>
       <c r="G66">
-        <v>-0.08642286060763921</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7">
+        <v>0.02923601675818211</v>
+      </c>
+      <c r="H66">
+        <v>-0.06259524533640108</v>
+      </c>
+      <c r="I66">
+        <v>0.05218728971131339</v>
+      </c>
+      <c r="J66">
+        <v>0.01190140624638697</v>
+      </c>
+      <c r="K66">
+        <v>-0.04114173370993056</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11">
       <c r="A67" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B67">
-        <v>0.03013101706203927</v>
+        <v>0.02106482819806186</v>
       </c>
       <c r="C67">
-        <v>0.03127262166363002</v>
+        <v>-0.05121793028170685</v>
       </c>
       <c r="D67">
-        <v>0.05412619995511051</v>
+        <v>-0.04068155206230365</v>
       </c>
       <c r="E67">
-        <v>-0.03345179332128846</v>
+        <v>0.02958210716107105</v>
       </c>
       <c r="F67">
-        <v>0.01281261962436251</v>
+        <v>0.02401822948444715</v>
       </c>
       <c r="G67">
-        <v>-0.0250416513412901</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7">
+        <v>0.02330580260986834</v>
+      </c>
+      <c r="H67">
+        <v>-0.05994708122403793</v>
+      </c>
+      <c r="I67">
+        <v>-0.05199331197596229</v>
+      </c>
+      <c r="J67">
+        <v>-0.05519517042691324</v>
+      </c>
+      <c r="K67">
+        <v>-0.01898624066176257</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11">
       <c r="A68" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B68">
-        <v>0.2826402854178512</v>
+        <v>0.2932005346640501</v>
       </c>
       <c r="C68">
-        <v>-0.05169771759207367</v>
+        <v>0.06896189328028873</v>
       </c>
       <c r="D68">
-        <v>-0.03550542785619598</v>
+        <v>0.02692797849755195</v>
       </c>
       <c r="E68">
-        <v>0.02087588955944353</v>
+        <v>-0.008798493249145696</v>
       </c>
       <c r="F68">
-        <v>-0.007462302136732641</v>
+        <v>-0.02660653838967292</v>
       </c>
       <c r="G68">
-        <v>0.01991367731169389</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7">
+        <v>-0.02309670784800749</v>
+      </c>
+      <c r="H68">
+        <v>-0.02652520774860945</v>
+      </c>
+      <c r="I68">
+        <v>-0.03353139887517121</v>
+      </c>
+      <c r="J68">
+        <v>0.00813765340499939</v>
+      </c>
+      <c r="K68">
+        <v>-0.06255265861733074</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11">
       <c r="A69" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B69">
-        <v>0.01438170429310184</v>
+        <v>0.008587037155597362</v>
       </c>
       <c r="C69">
-        <v>0.07085299318984749</v>
+        <v>-0.05921149677260378</v>
       </c>
       <c r="D69">
-        <v>0.05266133873158022</v>
+        <v>-0.02668925524162449</v>
       </c>
       <c r="E69">
-        <v>-0.01465142090989</v>
+        <v>-0.002389637763370068</v>
       </c>
       <c r="F69">
-        <v>0.00078792854793804</v>
+        <v>0.01143147749085524</v>
       </c>
       <c r="G69">
-        <v>-0.02269955237742241</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7">
+        <v>0.02616793070768341</v>
+      </c>
+      <c r="H69">
+        <v>-0.04498964844120416</v>
+      </c>
+      <c r="I69">
+        <v>-0.01039032119285959</v>
+      </c>
+      <c r="J69">
+        <v>-0.002202645408935429</v>
+      </c>
+      <c r="K69">
+        <v>-0.01701678826298467</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11">
       <c r="A70" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2310,585 +3150,897 @@
       <c r="G70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:7">
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>0</v>
+      </c>
+      <c r="K70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11">
       <c r="A71" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B71">
-        <v>0.2808179467768531</v>
+        <v>0.2774241965377612</v>
       </c>
       <c r="C71">
-        <v>-0.06559700925017382</v>
+        <v>0.07760079478165191</v>
       </c>
       <c r="D71">
-        <v>-0.04052728163447865</v>
+        <v>0.02468971396524124</v>
       </c>
       <c r="E71">
-        <v>0.03379524306748648</v>
+        <v>0.01539562566470145</v>
       </c>
       <c r="F71">
-        <v>0.0289813832187688</v>
+        <v>-0.06298411813298527</v>
       </c>
       <c r="G71">
-        <v>0.003953484916867701</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7">
+        <v>-0.01448886334870841</v>
+      </c>
+      <c r="H71">
+        <v>-0.05501094770351038</v>
+      </c>
+      <c r="I71">
+        <v>-0.126953543524933</v>
+      </c>
+      <c r="J71">
+        <v>0.03958791719826998</v>
+      </c>
+      <c r="K71">
+        <v>-0.05802885632480723</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11">
       <c r="A72" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B72">
-        <v>0.04449577350914301</v>
+        <v>0.05677432489260251</v>
       </c>
       <c r="C72">
-        <v>0.1572813938623633</v>
+        <v>-0.1400287440951219</v>
       </c>
       <c r="D72">
-        <v>0.06262139294443064</v>
+        <v>-0.04188291113664567</v>
       </c>
       <c r="E72">
-        <v>0.03973593725195795</v>
+        <v>0.004045434245875657</v>
       </c>
       <c r="F72">
-        <v>0.0935569708673944</v>
+        <v>0.02820475793657873</v>
       </c>
       <c r="G72">
-        <v>-0.0843637684299928</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7">
+        <v>0.02845568480055168</v>
+      </c>
+      <c r="H72">
+        <v>-0.02358552345864445</v>
+      </c>
+      <c r="I72">
+        <v>0.1273267813124858</v>
+      </c>
+      <c r="J72">
+        <v>0.05534881063116864</v>
+      </c>
+      <c r="K72">
+        <v>-0.01498284625931517</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11">
       <c r="A73" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B73">
-        <v>0.0797970465686936</v>
+        <v>0.14959450914914</v>
       </c>
       <c r="C73">
-        <v>0.1376312204362754</v>
+        <v>-0.1964470517440856</v>
       </c>
       <c r="D73">
-        <v>0.108441525712418</v>
+        <v>-0.07688398803744247</v>
       </c>
       <c r="E73">
-        <v>-0.1358653547221548</v>
+        <v>0.001525994820738612</v>
       </c>
       <c r="F73">
-        <v>0.0699553907545834</v>
+        <v>0.2548124869051904</v>
       </c>
       <c r="G73">
-        <v>-0.3957392403323731</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7">
+        <v>0.3667758757549788</v>
+      </c>
+      <c r="H73">
+        <v>0.3189498010132583</v>
+      </c>
+      <c r="I73">
+        <v>-0.07479292613167748</v>
+      </c>
+      <c r="J73">
+        <v>0.07540367586046093</v>
+      </c>
+      <c r="K73">
+        <v>0.07377696312818549</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11">
       <c r="A74" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B74">
-        <v>0.01907020488707651</v>
+        <v>0.03842570329565228</v>
       </c>
       <c r="C74">
-        <v>0.1026538390744261</v>
+        <v>-0.1059012340683326</v>
       </c>
       <c r="D74">
-        <v>0.06571328745980791</v>
+        <v>-0.04541570623891511</v>
       </c>
       <c r="E74">
-        <v>-0.08825431561807594</v>
+        <v>0.002286561932568914</v>
       </c>
       <c r="F74">
-        <v>-0.04277867757830678</v>
+        <v>0.05463067196012828</v>
       </c>
       <c r="G74">
-        <v>0.01373871005638352</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7">
+        <v>-0.05657293534369629</v>
+      </c>
+      <c r="H74">
+        <v>0.004592338829695564</v>
+      </c>
+      <c r="I74">
+        <v>0.004717607302767352</v>
+      </c>
+      <c r="J74">
+        <v>0.02213191582981832</v>
+      </c>
+      <c r="K74">
+        <v>-0.06829176987253299</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11">
       <c r="A75" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B75">
-        <v>0.06445756530470524</v>
+        <v>0.06239749649625528</v>
       </c>
       <c r="C75">
-        <v>0.1522618314984951</v>
+        <v>-0.1692134229493485</v>
       </c>
       <c r="D75">
-        <v>0.08690061935851795</v>
+        <v>-0.08315497022491543</v>
       </c>
       <c r="E75">
-        <v>-0.2184993779648284</v>
+        <v>0.05327977553396786</v>
       </c>
       <c r="F75">
-        <v>-0.06558123931927831</v>
+        <v>0.1194999055697161</v>
       </c>
       <c r="G75">
-        <v>0.1425970280758842</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7">
+        <v>-0.2321966981138909</v>
+      </c>
+      <c r="H75">
+        <v>0.02519289091266907</v>
+      </c>
+      <c r="I75">
+        <v>-0.1357930781154101</v>
+      </c>
+      <c r="J75">
+        <v>-0.06225827383962437</v>
+      </c>
+      <c r="K75">
+        <v>-0.08604588418514467</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11">
       <c r="A76" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B76">
-        <v>0.03199872852516757</v>
+        <v>0.04260987062839473</v>
       </c>
       <c r="C76">
-        <v>0.1179276074138818</v>
+        <v>-0.1260776221133086</v>
       </c>
       <c r="D76">
-        <v>0.06234943771042776</v>
+        <v>-0.07226774490620301</v>
       </c>
       <c r="E76">
-        <v>-0.1092581409517363</v>
+        <v>0.005984108356571267</v>
       </c>
       <c r="F76">
-        <v>-0.05474679397211434</v>
+        <v>0.08668161395304776</v>
       </c>
       <c r="G76">
-        <v>0.001171961235737178</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7">
+        <v>-0.08606959772153902</v>
+      </c>
+      <c r="H76">
+        <v>0.009048545129286137</v>
+      </c>
+      <c r="I76">
+        <v>-0.008097023737290042</v>
+      </c>
+      <c r="J76">
+        <v>-0.03340594975330414</v>
+      </c>
+      <c r="K76">
+        <v>-0.1311541596073925</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11">
       <c r="A77" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B77">
-        <v>0.06391257860585411</v>
+        <v>0.04539414278813138</v>
       </c>
       <c r="C77">
-        <v>0.2925805911736858</v>
+        <v>-0.3812984658496325</v>
       </c>
       <c r="D77">
-        <v>-0.8551670063676798</v>
+        <v>0.9076052041098439</v>
       </c>
       <c r="E77">
-        <v>-0.3125449606423735</v>
+        <v>0.0500075970298534</v>
       </c>
       <c r="F77">
-        <v>0.08526741166549399</v>
+        <v>0.07929778237076918</v>
       </c>
       <c r="G77">
-        <v>-0.05651422283193083</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7">
+        <v>-0.03077924979832117</v>
+      </c>
+      <c r="H77">
+        <v>-0.06188960134013123</v>
+      </c>
+      <c r="I77">
+        <v>-0.003510444608897097</v>
+      </c>
+      <c r="J77">
+        <v>-0.001938843926415643</v>
+      </c>
+      <c r="K77">
+        <v>-0.01532483836455012</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11">
       <c r="A78" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B78">
-        <v>0.04036252366269814</v>
+        <v>0.03487395345168928</v>
       </c>
       <c r="C78">
-        <v>0.1499131266290521</v>
+        <v>-0.1148187238504198</v>
       </c>
       <c r="D78">
-        <v>0.09357357174247623</v>
+        <v>-0.09638220985453297</v>
       </c>
       <c r="E78">
-        <v>0.06501739948464866</v>
+        <v>-0.04790218155847608</v>
       </c>
       <c r="F78">
-        <v>-0.1131619984157871</v>
+        <v>-0.007951639664627509</v>
       </c>
       <c r="G78">
-        <v>0.01671606954113646</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7">
+        <v>-0.1089462653943485</v>
+      </c>
+      <c r="H78">
+        <v>-0.05816419276031629</v>
+      </c>
+      <c r="I78">
+        <v>0.0781380867984585</v>
+      </c>
+      <c r="J78">
+        <v>0.4024579326518796</v>
+      </c>
+      <c r="K78">
+        <v>-0.005625187518395145</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11">
       <c r="A79" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B79">
-        <v>0.03957237464636278</v>
+        <v>0.05614285398946472</v>
       </c>
       <c r="C79">
-        <v>0.1866592540052849</v>
+        <v>-0.1447911654773073</v>
       </c>
       <c r="D79">
-        <v>0.1132323736745529</v>
+        <v>-0.06587335899094522</v>
       </c>
       <c r="E79">
-        <v>-0.1595090492637511</v>
+        <v>-0.01564780288217404</v>
       </c>
       <c r="F79">
-        <v>-0.1416631480622392</v>
+        <v>0.07404866896360547</v>
       </c>
       <c r="G79">
-        <v>0.1269217594927581</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7">
+        <v>-0.2355728019317014</v>
+      </c>
+      <c r="H79">
+        <v>0.0006159034631890406</v>
+      </c>
+      <c r="I79">
+        <v>-0.07229688183395688</v>
+      </c>
+      <c r="J79">
+        <v>0.08106738709699983</v>
+      </c>
+      <c r="K79">
+        <v>-0.06311874614245526</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11">
       <c r="A80" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B80">
-        <v>0.01642557992938989</v>
+        <v>0.02078980092455828</v>
       </c>
       <c r="C80">
-        <v>0.04194483150078038</v>
+        <v>-0.05236310171420465</v>
       </c>
       <c r="D80">
-        <v>0.04707425962483116</v>
+        <v>-0.03940977243380823</v>
       </c>
       <c r="E80">
-        <v>-0.01031148652273438</v>
+        <v>-0.0496778263332949</v>
       </c>
       <c r="F80">
-        <v>-0.02761580504918286</v>
+        <v>-0.01959564250307094</v>
       </c>
       <c r="G80">
-        <v>-0.002263283464877275</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7">
+        <v>0.05297270580994407</v>
+      </c>
+      <c r="H80">
+        <v>0.03507016457339588</v>
+      </c>
+      <c r="I80">
+        <v>-0.04818269421682685</v>
+      </c>
+      <c r="J80">
+        <v>-0.07684632999820439</v>
+      </c>
+      <c r="K80">
+        <v>-0.02725690002264369</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11">
       <c r="A81" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B81">
-        <v>0.01583249090163751</v>
+        <v>0.01675779247541581</v>
       </c>
       <c r="C81">
-        <v>0.09054736029847286</v>
+        <v>-0.1018715634250727</v>
       </c>
       <c r="D81">
-        <v>0.07905737386640833</v>
+        <v>-0.05388337757361199</v>
       </c>
       <c r="E81">
-        <v>-0.1204438836807642</v>
+        <v>-0.009011221582500131</v>
       </c>
       <c r="F81">
-        <v>-0.06626900647746317</v>
+        <v>0.04884359841631923</v>
       </c>
       <c r="G81">
-        <v>0.02972774507012656</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7">
+        <v>-0.110769737053309</v>
+      </c>
+      <c r="H81">
+        <v>-0.04548216162810598</v>
+      </c>
+      <c r="I81">
+        <v>-0.05686360906232565</v>
+      </c>
+      <c r="J81">
+        <v>-0.024420455059884</v>
+      </c>
+      <c r="K81">
+        <v>-0.08818972567650592</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11">
       <c r="A82" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B82">
-        <v>0.03721182979801649</v>
+        <v>0.04770407674940386</v>
       </c>
       <c r="C82">
-        <v>0.09799367896827207</v>
+        <v>-0.107399117343907</v>
       </c>
       <c r="D82">
-        <v>0.07583907140186116</v>
+        <v>-0.06578665698936646</v>
       </c>
       <c r="E82">
-        <v>-0.117510024992926</v>
+        <v>-0.0009459871517646554</v>
       </c>
       <c r="F82">
-        <v>-0.0339007442049755</v>
+        <v>0.07267515123180257</v>
       </c>
       <c r="G82">
-        <v>0.004212394648002426</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7">
+        <v>-0.09529565393366322</v>
+      </c>
+      <c r="H82">
+        <v>-0.01454148471038626</v>
+      </c>
+      <c r="I82">
+        <v>-0.02385408921398301</v>
+      </c>
+      <c r="J82">
+        <v>-0.01346968696181716</v>
+      </c>
+      <c r="K82">
+        <v>-0.1045698267125335</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11">
       <c r="A83" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B83">
-        <v>-0.004684667167847752</v>
+        <v>-9.285718570521142e-05</v>
       </c>
       <c r="C83">
-        <v>0.0464454521907762</v>
+        <v>-0.0006793961944151241</v>
       </c>
       <c r="D83">
-        <v>-0.1899551683646715</v>
+        <v>0.06382978502023232</v>
       </c>
       <c r="E83">
-        <v>0.2692291895361263</v>
+        <v>-0.9620292863846713</v>
       </c>
       <c r="F83">
-        <v>-0.8614277093846858</v>
+        <v>-0.01994938207783337</v>
       </c>
       <c r="G83">
-        <v>-0.1861210954439483</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7">
+        <v>-0.04514705273162482</v>
+      </c>
+      <c r="H83">
+        <v>0.08567636132346948</v>
+      </c>
+      <c r="I83">
+        <v>0.05886833462265569</v>
+      </c>
+      <c r="J83">
+        <v>0.002868339989021399</v>
+      </c>
+      <c r="K83">
+        <v>-0.0914617626319707</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11">
       <c r="A84" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B84">
-        <v>-3.992041838022109e-06</v>
+        <v>-0.0005462274356039041</v>
       </c>
       <c r="C84">
-        <v>0.05259896823213862</v>
+        <v>-0.04614265895421735</v>
       </c>
       <c r="D84">
-        <v>0.02716478232980984</v>
+        <v>-0.0622797479446781</v>
       </c>
       <c r="E84">
-        <v>0.1039530966043892</v>
+        <v>0.01651806073067827</v>
       </c>
       <c r="F84">
-        <v>0.07514699394505876</v>
+        <v>-0.1004348714793169</v>
       </c>
       <c r="G84">
-        <v>0.1029139480899792</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7">
+        <v>-0.03805690254983456</v>
+      </c>
+      <c r="H84">
+        <v>-0.07322287050673933</v>
+      </c>
+      <c r="I84">
+        <v>0.1047892277640268</v>
+      </c>
+      <c r="J84">
+        <v>-0.05780931360662886</v>
+      </c>
+      <c r="K84">
+        <v>-0.08016305102708104</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11">
       <c r="A85" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B85">
-        <v>0.0296196059783087</v>
+        <v>0.03107744561329905</v>
       </c>
       <c r="C85">
-        <v>0.1360123125866291</v>
+        <v>-0.1167619678111469</v>
       </c>
       <c r="D85">
-        <v>0.08777549046502521</v>
+        <v>-0.07895836940904032</v>
       </c>
       <c r="E85">
-        <v>-0.1504200547570564</v>
+        <v>0.002198913628733642</v>
       </c>
       <c r="F85">
-        <v>-0.09257293812550335</v>
+        <v>0.1246782557889173</v>
       </c>
       <c r="G85">
-        <v>0.08366712137514874</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7">
+        <v>-0.1981057483822708</v>
+      </c>
+      <c r="H85">
+        <v>0.02178067414744866</v>
+      </c>
+      <c r="I85">
+        <v>-0.08491713360396592</v>
+      </c>
+      <c r="J85">
+        <v>-0.02992177464831835</v>
+      </c>
+      <c r="K85">
+        <v>-0.1914754287353874</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11">
       <c r="A86" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B86">
-        <v>0.02087034906457871</v>
+        <v>0.01621695391110035</v>
       </c>
       <c r="C86">
-        <v>0.06842842846533877</v>
+        <v>-0.08162544499787537</v>
       </c>
       <c r="D86">
-        <v>-0.0323005918955778</v>
+        <v>-0.02444495525881066</v>
       </c>
       <c r="E86">
-        <v>0.04268699600861134</v>
+        <v>-0.004791029869021882</v>
       </c>
       <c r="F86">
-        <v>0.06505386425487339</v>
+        <v>-0.09109441115489282</v>
       </c>
       <c r="G86">
-        <v>-0.01579027123489</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7">
+        <v>-0.04458348654341358</v>
+      </c>
+      <c r="H86">
+        <v>-0.01616346565891315</v>
+      </c>
+      <c r="I86">
+        <v>-0.1326822044866236</v>
+      </c>
+      <c r="J86">
+        <v>0.1696200960862979</v>
+      </c>
+      <c r="K86">
+        <v>0.07521281741548864</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11">
       <c r="A87" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B87">
-        <v>0.04298246008332571</v>
+        <v>0.02505314651574733</v>
       </c>
       <c r="C87">
-        <v>0.1498200424717457</v>
+        <v>-0.1182935423079886</v>
       </c>
       <c r="D87">
-        <v>0.0134654970039521</v>
+        <v>-0.01717054226210393</v>
       </c>
       <c r="E87">
-        <v>0.1270668250229708</v>
+        <v>0.001193543704595558</v>
       </c>
       <c r="F87">
-        <v>0.001802052114506116</v>
+        <v>-0.07695814618523253</v>
       </c>
       <c r="G87">
-        <v>0.03685711430383643</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7">
+        <v>-0.002007737981683026</v>
+      </c>
+      <c r="H87">
+        <v>-0.04405131357229891</v>
+      </c>
+      <c r="I87">
+        <v>0.09744152021289969</v>
+      </c>
+      <c r="J87">
+        <v>0.05894913970581507</v>
+      </c>
+      <c r="K87">
+        <v>-0.07956864605028791</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11">
       <c r="A88" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B88">
-        <v>0.006440681404211003</v>
+        <v>0.03639716592133363</v>
       </c>
       <c r="C88">
-        <v>0.04231907290187532</v>
+        <v>-0.06570534954216359</v>
       </c>
       <c r="D88">
-        <v>0.04853877308682032</v>
+        <v>-0.04244839738017203</v>
       </c>
       <c r="E88">
-        <v>-0.05577391775666454</v>
+        <v>0.01504737206817098</v>
       </c>
       <c r="F88">
-        <v>0.02082744093412141</v>
+        <v>0.02146918144364844</v>
       </c>
       <c r="G88">
-        <v>-0.007950328463114657</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7">
+        <v>0.02232689298195798</v>
+      </c>
+      <c r="H88">
+        <v>-0.001673224857008331</v>
+      </c>
+      <c r="I88">
+        <v>-0.02286186230925552</v>
+      </c>
+      <c r="J88">
+        <v>-0.07597266012845677</v>
+      </c>
+      <c r="K88">
+        <v>-0.0630203717256958</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11">
       <c r="A89" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B89">
-        <v>0.3875714294138219</v>
+        <v>0.3902007788735015</v>
       </c>
       <c r="C89">
-        <v>-0.08976969560483856</v>
+        <v>0.1082256297116993</v>
       </c>
       <c r="D89">
-        <v>0.105380592561145</v>
+        <v>0.03101616994254945</v>
       </c>
       <c r="E89">
-        <v>0.07040240527886962</v>
+        <v>0.02970151680998695</v>
       </c>
       <c r="F89">
-        <v>-0.04957816784520456</v>
+        <v>-0.05015653825321678</v>
       </c>
       <c r="G89">
-        <v>0.09264828469742134</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7">
+        <v>0.01616239575167185</v>
+      </c>
+      <c r="H89">
+        <v>0.01220519069541508</v>
+      </c>
+      <c r="I89">
+        <v>0.7568441006216697</v>
+      </c>
+      <c r="J89">
+        <v>-0.05140130865900383</v>
+      </c>
+      <c r="K89">
+        <v>0.05242019533984752</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11">
       <c r="A90" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B90">
-        <v>0.3018218890508876</v>
+        <v>0.3138930160174377</v>
       </c>
       <c r="C90">
-        <v>-0.02983507830115601</v>
+        <v>0.06858883232213965</v>
       </c>
       <c r="D90">
-        <v>-0.008780961370782986</v>
+        <v>0.01308010184280738</v>
       </c>
       <c r="E90">
-        <v>0.05459307480217496</v>
+        <v>-0.02138010942427715</v>
       </c>
       <c r="F90">
-        <v>-0.05728123130757767</v>
+        <v>-0.03197463881806877</v>
       </c>
       <c r="G90">
-        <v>-0.02899344445110269</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7">
+        <v>-0.01770338194134745</v>
+      </c>
+      <c r="H90">
+        <v>-0.01474791053384906</v>
+      </c>
+      <c r="I90">
+        <v>-0.07316412991538597</v>
+      </c>
+      <c r="J90">
+        <v>0.0264401505108632</v>
+      </c>
+      <c r="K90">
+        <v>-0.005180545202564025</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11">
       <c r="A91" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B91">
-        <v>0.03540340179989663</v>
+        <v>0.05277369403197636</v>
       </c>
       <c r="C91">
-        <v>0.09420679872523371</v>
+        <v>-0.09120638912258811</v>
       </c>
       <c r="D91">
-        <v>0.04580813112187218</v>
+        <v>-0.04388683714569442</v>
       </c>
       <c r="E91">
-        <v>-0.08591749631073059</v>
+        <v>-0.02873603879716448</v>
       </c>
       <c r="F91">
-        <v>-0.06649263086033783</v>
+        <v>0.06002751733148677</v>
       </c>
       <c r="G91">
-        <v>0.03661501331493389</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7">
+        <v>-0.08214818396254768</v>
+      </c>
+      <c r="H91">
+        <v>0.02296142278796725</v>
+      </c>
+      <c r="I91">
+        <v>-0.004914212187224489</v>
+      </c>
+      <c r="J91">
+        <v>-0.04277202438371962</v>
+      </c>
+      <c r="K91">
+        <v>-0.02735619258006427</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11">
       <c r="A92" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B92">
-        <v>0.3780836962953225</v>
+        <v>0.3539508134611769</v>
       </c>
       <c r="C92">
-        <v>-0.1157717293368975</v>
+        <v>0.1263586118497814</v>
       </c>
       <c r="D92">
-        <v>-0.02900249655143802</v>
+        <v>0.05400277938348587</v>
       </c>
       <c r="E92">
-        <v>0.02464933832623636</v>
+        <v>0.04383691984326433</v>
       </c>
       <c r="F92">
-        <v>0.1083220514053074</v>
+        <v>-0.06621060353727401</v>
       </c>
       <c r="G92">
-        <v>0.039440065133016</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7">
+        <v>0.004002814467395703</v>
+      </c>
+      <c r="H92">
+        <v>-0.07894552032171342</v>
+      </c>
+      <c r="I92">
+        <v>-0.1514665877303909</v>
+      </c>
+      <c r="J92">
+        <v>0.01407872563455796</v>
+      </c>
+      <c r="K92">
+        <v>0.04786303992451491</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11">
       <c r="A93" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B93">
-        <v>0.297043403661408</v>
+        <v>0.3102778818020837</v>
       </c>
       <c r="C93">
-        <v>-0.09060110701964896</v>
+        <v>0.1140264739588335</v>
       </c>
       <c r="D93">
-        <v>0.01660709030802695</v>
+        <v>0.006444843258670029</v>
       </c>
       <c r="E93">
-        <v>0.0589037471983138</v>
+        <v>-0.003786909226170886</v>
       </c>
       <c r="F93">
-        <v>-0.005064776362136166</v>
+        <v>-0.04196006530815145</v>
       </c>
       <c r="G93">
-        <v>0.03130175745967127</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7">
+        <v>-0.0381287875916403</v>
+      </c>
+      <c r="H93">
+        <v>-0.03835591448856625</v>
+      </c>
+      <c r="I93">
+        <v>-0.1039739435941186</v>
+      </c>
+      <c r="J93">
+        <v>0.01235930265143551</v>
+      </c>
+      <c r="K93">
+        <v>-0.03600491320843022</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11">
       <c r="A94" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B94">
-        <v>0.0644254130920256</v>
+        <v>0.07951793403279307</v>
       </c>
       <c r="C94">
-        <v>0.2126017037088076</v>
+        <v>-0.1724301896475935</v>
       </c>
       <c r="D94">
-        <v>0.1544485991341679</v>
+        <v>-0.1033557727140213</v>
       </c>
       <c r="E94">
-        <v>-0.3182375017698205</v>
+        <v>-0.00225679831989045</v>
       </c>
       <c r="F94">
-        <v>-0.2139430646960555</v>
+        <v>0.1643160056774576</v>
       </c>
       <c r="G94">
-        <v>0.4935201042722522</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7">
+        <v>-0.5480457600656027</v>
+      </c>
+      <c r="H94">
+        <v>0.1732124043104885</v>
+      </c>
+      <c r="I94">
+        <v>0.1127170988991053</v>
+      </c>
+      <c r="J94">
+        <v>-0.2335268914382398</v>
+      </c>
+      <c r="K94">
+        <v>0.4880318847195599</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11">
       <c r="A95" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B95">
-        <v>0.04183947910071813</v>
+        <v>0.03797476508446762</v>
       </c>
       <c r="C95">
-        <v>0.09510399984384152</v>
+        <v>-0.1276380373168303</v>
       </c>
       <c r="D95">
-        <v>0.03152306829679006</v>
+        <v>-0.05814118256642354</v>
       </c>
       <c r="E95">
-        <v>-0.0488534682782413</v>
+        <v>0.03856411916344143</v>
       </c>
       <c r="F95">
-        <v>-0.02059771139160387</v>
+        <v>0.0744505362394255</v>
       </c>
       <c r="G95">
-        <v>-0.1434985559751562</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7">
+        <v>0.0494063841802341</v>
+      </c>
+      <c r="H95">
+        <v>-0.07183553580052429</v>
+      </c>
+      <c r="I95">
+        <v>0.1111462752066601</v>
+      </c>
+      <c r="J95">
+        <v>-0.2498272469534968</v>
+      </c>
+      <c r="K95">
+        <v>-0.3281592185591487</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11">
       <c r="A96" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2908,79 +4060,127 @@
       <c r="G96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:7">
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>0</v>
+      </c>
+      <c r="K96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11">
       <c r="A97" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B97">
-        <v>0.0002310338408027454</v>
+        <v>0.01127883859345595</v>
       </c>
       <c r="C97">
-        <v>-1.573838660375489e-05</v>
+        <v>-0.01436142910788623</v>
       </c>
       <c r="D97">
-        <v>-7.06549953913792e-05</v>
+        <v>0.01022802081856123</v>
       </c>
       <c r="E97">
-        <v>-0.0005718411209836554</v>
+        <v>0.03306720691120438</v>
       </c>
       <c r="F97">
-        <v>0.0006525944360144172</v>
+        <v>-0.009913647279888268</v>
       </c>
       <c r="G97">
-        <v>0.0007354893658354873</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7">
+        <v>0.03055214504039174</v>
+      </c>
+      <c r="H97">
+        <v>-0.03392761906635606</v>
+      </c>
+      <c r="I97">
+        <v>0.02507496002309053</v>
+      </c>
+      <c r="J97">
+        <v>-0.01148176690122518</v>
+      </c>
+      <c r="K97">
+        <v>0.06507886252890258</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11">
       <c r="A98" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B98">
-        <v>0.09528382380961839</v>
+        <v>0.1298892148877757</v>
       </c>
       <c r="C98">
-        <v>0.1437163797160929</v>
+        <v>-0.1576095472193</v>
       </c>
       <c r="D98">
-        <v>0.09641654943950569</v>
+        <v>-0.08304267510439214</v>
       </c>
       <c r="E98">
-        <v>-0.07398779678008528</v>
+        <v>-0.0004132261876785577</v>
       </c>
       <c r="F98">
-        <v>0.05190532632843169</v>
+        <v>0.2174149281315759</v>
       </c>
       <c r="G98">
-        <v>-0.2666934175270806</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7">
+        <v>0.3194354549045289</v>
+      </c>
+      <c r="H98">
+        <v>0.3480919166495772</v>
+      </c>
+      <c r="I98">
+        <v>-0.0901033241597954</v>
+      </c>
+      <c r="J98">
+        <v>0.09864066018897409</v>
+      </c>
+      <c r="K98">
+        <v>0.187964232603966</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11">
       <c r="A99" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B99">
-        <v>0</v>
+        <v>0.01131737352796066</v>
       </c>
       <c r="C99">
-        <v>0</v>
+        <v>-0.0242080789449009</v>
       </c>
       <c r="D99">
-        <v>0</v>
+        <v>0.009311640327060359</v>
       </c>
       <c r="E99">
-        <v>0</v>
+        <v>0.000350960214716587</v>
       </c>
       <c r="F99">
-        <v>0</v>
+        <v>0.03955192155266632</v>
       </c>
       <c r="G99">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7">
+        <v>-0.03740314932156034</v>
+      </c>
+      <c r="H99">
+        <v>-0.1048568762673141</v>
+      </c>
+      <c r="I99">
+        <v>-0.003823116541655012</v>
+      </c>
+      <c r="J99">
+        <v>-0.01247104101834899</v>
+      </c>
+      <c r="K99">
+        <v>0.4145797094415667</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11">
       <c r="A100" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -3000,56 +4200,92 @@
       <c r="G100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:7">
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>0</v>
+      </c>
+      <c r="K100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11">
       <c r="A101" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B101">
-        <v>0.01415841838389771</v>
+        <v>0.01424238606118769</v>
       </c>
       <c r="C101">
-        <v>0.06925126478665604</v>
+        <v>-0.07919360218075545</v>
       </c>
       <c r="D101">
-        <v>0.03758798801703135</v>
+        <v>-0.05197623638545454</v>
       </c>
       <c r="E101">
-        <v>0.05479282940473813</v>
+        <v>-0.05134998169131928</v>
       </c>
       <c r="F101">
-        <v>0.01634717057964932</v>
+        <v>-0.005658123013470929</v>
       </c>
       <c r="G101">
-        <v>-0.09949160332521519</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7">
+        <v>0.1351461317472658</v>
+      </c>
+      <c r="H101">
+        <v>-0.2833294066173959</v>
+      </c>
+      <c r="I101">
+        <v>0.03198679671806921</v>
+      </c>
+      <c r="J101">
+        <v>-0.1683025066058194</v>
+      </c>
+      <c r="K101">
+        <v>0.2045156380072648</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11">
       <c r="A102" s="1" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B102">
-        <v>0.01300321704182517</v>
+        <v>0.004809597933687175</v>
       </c>
       <c r="C102">
-        <v>0.03934605367195444</v>
+        <v>-0.01593292202609572</v>
       </c>
       <c r="D102">
-        <v>0.01444025292087994</v>
+        <v>-0.003841997538414416</v>
       </c>
       <c r="E102">
-        <v>-0.02711477266299289</v>
+        <v>-0.006574782843188415</v>
       </c>
       <c r="F102">
-        <v>-0.02602848658197133</v>
+        <v>0.008536018606505288</v>
       </c>
       <c r="G102">
-        <v>-0.003990468454156539</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7">
+        <v>-0.01011695575495873</v>
+      </c>
+      <c r="H102">
+        <v>-0.002871031917414055</v>
+      </c>
+      <c r="I102">
+        <v>0.02167935336320288</v>
+      </c>
+      <c r="J102">
+        <v>0.002272840698114526</v>
+      </c>
+      <c r="K102">
+        <v>0.02535130942990658</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11">
       <c r="A103" s="1" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -3069,10 +4305,22 @@
       <c r="G103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:7">
+      <c r="H103">
+        <v>0</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
+      <c r="J103">
+        <v>0</v>
+      </c>
+      <c r="K103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11">
       <c r="A104" s="1" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -3090,6 +4338,18 @@
         <v>0</v>
       </c>
       <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104">
+        <v>0</v>
+      </c>
+      <c r="K104">
         <v>0</v>
       </c>
     </row>
